--- a/Opto-Mechanical_Failure Records_and_Inventory.xlsx
+++ b/Opto-Mechanical_Failure Records_and_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/vtalwar9_gatech_edu/Documents/GT/Career/Stanford/OptoMech_FailureMgmt-Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{06EC399D-257C-43B9-9704-E842BC44A5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF5BC40-AC53-434C-9BE7-2866AF2F2861}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="8_{06EC399D-257C-43B9-9704-E842BC44A5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3432DC06-378D-4BE9-9BF8-9F2DF761F876}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E9F7D02-2ECD-42E2-AFC5-44DB8E42F77D}"/>
+    <workbookView xWindow="-105" yWindow="7740" windowWidth="14610" windowHeight="7845" xr2:uid="{2E9F7D02-2ECD-42E2-AFC5-44DB8E42F77D}"/>
   </bookViews>
   <sheets>
     <sheet name="Failure Components" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
   <si>
     <t>Deployment Date</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Unresponsive,Inaccurate Motion,Piezo Damage</t>
   </si>
   <si>
-    <t>Inaccurate Motion,Piezo Damage</t>
-  </si>
-  <si>
     <t>Failure</t>
   </si>
   <si>
@@ -213,6 +210,12 @@
   </si>
   <si>
     <t>Rate of Failure</t>
+  </si>
+  <si>
+    <t>Unresponsive, Piezo Damage</t>
+  </si>
+  <si>
+    <t>Inaccurate Motion, Unresponsive, Piezo Damage</t>
   </si>
 </sst>
 </file>
@@ -609,19 +612,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132F2680-CC65-42D5-B40E-06DDCB69C44B}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="G18" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="70.6640625" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="70.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,19 +653,19 @@
         <v>43</v>
       </c>
       <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45047</v>
       </c>
@@ -688,13 +691,13 @@
         <v>30</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>45252</v>
@@ -721,10 +724,10 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>45252</v>
@@ -751,10 +754,10 @@
         <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>45252</v>
@@ -781,10 +784,10 @@
         <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>45252</v>
@@ -811,10 +814,10 @@
         <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>45252</v>
@@ -841,10 +844,10 @@
         <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45047</v>
       </c>
@@ -874,10 +877,10 @@
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45047</v>
       </c>
@@ -907,10 +910,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45047</v>
       </c>
@@ -940,10 +943,10 @@
         <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45047</v>
       </c>
@@ -973,10 +976,10 @@
         <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45047</v>
       </c>
@@ -1006,10 +1009,10 @@
         <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45047</v>
       </c>
@@ -1039,10 +1042,10 @@
         <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45139</v>
       </c>
@@ -1072,10 +1075,10 @@
         <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45139</v>
       </c>
@@ -1105,10 +1108,10 @@
         <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45139</v>
       </c>
@@ -1138,10 +1141,10 @@
         <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45139</v>
       </c>
@@ -1171,10 +1174,10 @@
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45139</v>
       </c>
@@ -1204,10 +1207,10 @@
         <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45139</v>
       </c>
@@ -1237,10 +1240,10 @@
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45139</v>
       </c>
@@ -1270,10 +1273,10 @@
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45047</v>
       </c>
@@ -1303,10 +1306,10 @@
         <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45139</v>
       </c>
@@ -1333,13 +1336,13 @@
         <v>34</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45047</v>
       </c>
@@ -1369,10 +1372,10 @@
         <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45047</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>50</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Opto-Mechanical_Failure Records_and_Inventory.xlsx
+++ b/Opto-Mechanical_Failure Records_and_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/vtalwar9_gatech_edu/Documents/GT/Career/Stanford/OptoMech_FailureMgmt-Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="306" documentId="8_{06EC399D-257C-43B9-9704-E842BC44A5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3432DC06-378D-4BE9-9BF8-9F2DF761F876}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{06EC399D-257C-43B9-9704-E842BC44A5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E179B0B2-C668-4813-856E-489BA681AB36}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="7740" windowWidth="14610" windowHeight="7845" xr2:uid="{2E9F7D02-2ECD-42E2-AFC5-44DB8E42F77D}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{2E9F7D02-2ECD-42E2-AFC5-44DB8E42F77D}"/>
   </bookViews>
   <sheets>
     <sheet name="Failure Components" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>Deployment Date</t>
   </si>
@@ -74,18 +74,12 @@
     <t>STT50.8v</t>
   </si>
   <si>
-    <t>Cable Damaged</t>
-  </si>
-  <si>
     <t>ATM_MP1_IMG1_BS3</t>
   </si>
   <si>
     <t>SR7012l</t>
   </si>
   <si>
-    <t xml:space="preserve">Piezo burned </t>
-  </si>
-  <si>
     <t>LM1K4</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>HRM_MP1_MR4</t>
   </si>
   <si>
-    <t>Unresponsive tilt axis AND Piezo damage</t>
-  </si>
-  <si>
     <t>EJX_MP1_MR1</t>
   </si>
   <si>
@@ -110,64 +101,25 @@
     <t>CLL42lc</t>
   </si>
   <si>
-    <t>Stage failing sporadically in closed-loop movement</t>
-  </si>
-  <si>
     <t>SLC1740ds</t>
   </si>
   <si>
-    <t>Unresponsive stage, Hanging after sticky movements AND Piezo damaged</t>
-  </si>
-  <si>
     <t>SLC1760ds</t>
   </si>
   <si>
-    <t>Unresponsive stage AND Piezo damaged</t>
-  </si>
-  <si>
     <t>SLLV42sc</t>
   </si>
   <si>
-    <t>Unresponsive linear stage AND Piezo damage</t>
-  </si>
-  <si>
     <t>SLLV42lc</t>
   </si>
   <si>
-    <t>Not "homing" properly</t>
-  </si>
-  <si>
     <t>EJX_MP1_LS1_LM1</t>
   </si>
   <si>
-    <t>Unresponsive movement AND Piezo Damage</t>
-  </si>
-  <si>
     <t>SLC2445ds</t>
   </si>
   <si>
-    <t>Stage failing sporadically in closed-loop movement AND Not "homing" properly</t>
-  </si>
-  <si>
-    <t>Unresponsive axes</t>
-  </si>
-  <si>
-    <t>Intermittent sensor failure on encoded tilt axis</t>
-  </si>
-  <si>
-    <t>ATM_MR0_TILT1 unresponsive AND Piezo damage</t>
-  </si>
-  <si>
     <t>ATM_MP1_MR1</t>
-  </si>
-  <si>
-    <t>ATM_MR1_TILT1 unresponsive AND Piezo damage</t>
-  </si>
-  <si>
-    <t>Absolute positions change unexpectedly</t>
-  </si>
-  <si>
-    <t>Standardized</t>
   </si>
   <si>
     <t>Unresponsive</t>
@@ -270,12 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,21 +563,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132F2680-CC65-42D5-B40E-06DDCB69C44B}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
     <col min="6" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,26 +598,23 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>43</v>
+      <c r="I1" t="s">
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45047</v>
       </c>
@@ -673,40 +622,39 @@
         <v>44962</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3">
         <v>463</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="1">
         <v>45252</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -715,88 +663,85 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B4" s="1">
         <v>45252</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B5" s="1">
         <v>45252</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B6" s="1">
         <v>45252</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -805,49 +750,45 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" s="1">
         <v>45252</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45047</v>
       </c>
@@ -859,28 +800,25 @@
         <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45047</v>
       </c>
@@ -892,28 +830,25 @@
         <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45047</v>
       </c>
@@ -925,28 +860,25 @@
         <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45047</v>
       </c>
@@ -958,28 +890,25 @@
         <v>245</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45047</v>
       </c>
@@ -991,28 +920,25 @@
         <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45047</v>
       </c>
@@ -1024,28 +950,25 @@
         <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45139</v>
       </c>
@@ -1060,25 +983,22 @@
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3">
         <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45139</v>
       </c>
@@ -1093,25 +1013,22 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45139</v>
       </c>
@@ -1126,25 +1043,22 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45139</v>
       </c>
@@ -1162,22 +1076,19 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45139</v>
       </c>
@@ -1200,17 +1111,14 @@
       <c r="G18" t="s">
         <v>10</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45139</v>
       </c>
@@ -1231,19 +1139,16 @@
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45139</v>
       </c>
@@ -1258,25 +1163,22 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45047</v>
       </c>
@@ -1288,28 +1190,25 @@
         <v>391</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F21">
         <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45139</v>
       </c>
@@ -1324,25 +1223,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F22" s="3">
         <v>473</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45047</v>
       </c>
@@ -1354,28 +1250,25 @@
         <v>424</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F23">
         <v>469</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45047</v>
       </c>
@@ -1387,29 +1280,26 @@
         <v>430</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
     <sortCondition ref="B2:B24"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Opto-Mechanical_Failure Records_and_Inventory.xlsx
+++ b/Opto-Mechanical_Failure Records_and_Inventory.xlsx
@@ -565,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132F2680-CC65-42D5-B40E-06DDCB69C44B}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
